--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>tran dong nam</t>
   </si>
@@ -40,7 +40,7 @@
     <t>tran quang viet</t>
   </si>
   <si>
-    <t>19021392@vnu.edu.vn</t>
+    <t>19021337@vnu.edu.vn</t>
   </si>
   <si>
     <t>female</t>
@@ -52,7 +52,37 @@
     <t>nguyen thanh vinh</t>
   </si>
   <si>
-    <t>19021395@vnu.edu.vn</t>
+    <t>19021338@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tran van a</t>
+  </si>
+  <si>
+    <t>19021339@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tran van b</t>
+  </si>
+  <si>
+    <t>19021340@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tran van c</t>
+  </si>
+  <si>
+    <t>19021341@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tran van d </t>
+  </si>
+  <si>
+    <t>19021342@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tran van e</t>
+  </si>
+  <si>
+    <t>19021343@vnu.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -88,17 +118,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -324,8 +357,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>12345.0</v>
+      <c r="C1" s="2">
+        <v>1.2345678E7</v>
       </c>
       <c r="D1" s="1">
         <v>1.9021336E7</v>
@@ -336,7 +369,7 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>36922.0</v>
       </c>
       <c r="H1" s="1">
@@ -351,8 +384,8 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3">
-        <v>3.0</v>
+      <c r="L1" s="2">
+        <v>2.8</v>
       </c>
       <c r="M1" s="1">
         <v>100.0</v>
@@ -368,43 +401,43 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>12345.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.9021392E7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>35202.0</v>
+      <c r="C2" s="2">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.9021337E7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35201.0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>36923.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>9.87654321E8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L2" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="M2" s="2">
         <v>100.0</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -412,49 +445,284 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>12345.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.9021395E7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>35203.0</v>
+      <c r="C3" s="2">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.9021338E7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>35201.0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>36924.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>9.87654321E8</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.9021339E7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>36925.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.902134E7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>36926.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
         <v>3.0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M5" s="1">
         <v>100.0</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.9021341E7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36927.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="M6" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9021342E7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>36928.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.9021343E7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>36929.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
   <si>
     <t>tran dong nam</t>
   </si>
@@ -19,48 +19,48 @@
     <t>19021336@vnu.eduvn</t>
   </si>
   <si>
+    <t xml:space="preserve">male </t>
+  </si>
+  <si>
+    <t>ha nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinh vien </t>
+  </si>
+  <si>
+    <t>lucifer of King</t>
+  </si>
+  <si>
+    <t>khoa hoc may tinh</t>
+  </si>
+  <si>
+    <t>cong nghe thong tin</t>
+  </si>
+  <si>
+    <t>tran quang viet</t>
+  </si>
+  <si>
+    <t>19021337@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>nguyen thanh vinh</t>
+  </si>
+  <si>
+    <t>19021338@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tran van a</t>
+  </si>
+  <si>
+    <t>19021339@vnu.edu.vn</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>ha nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sinh vien </t>
-  </si>
-  <si>
-    <t>lucifer of King</t>
-  </si>
-  <si>
-    <t>khoa hoc may tinh</t>
-  </si>
-  <si>
-    <t>cong nghe thong tin</t>
-  </si>
-  <si>
-    <t>tran quang viet</t>
-  </si>
-  <si>
-    <t>19021337@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>ha noi</t>
-  </si>
-  <si>
-    <t>nguyen thanh vinh</t>
-  </si>
-  <si>
-    <t>19021338@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>tran van a</t>
-  </si>
-  <si>
-    <t>19021339@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>tran van b</t>
   </si>
   <si>
@@ -83,6 +83,114 @@
   </si>
   <si>
     <t>19021343@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>tran van f</t>
+  </si>
+  <si>
+    <t>19021344@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le van a </t>
+  </si>
+  <si>
+    <t>19021345@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>le van b</t>
+  </si>
+  <si>
+    <t>19021346@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>le van c</t>
+  </si>
+  <si>
+    <t>19021347@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>le van d</t>
+  </si>
+  <si>
+    <t>19021348@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>le van e</t>
+  </si>
+  <si>
+    <t>19021349@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vu van a</t>
+  </si>
+  <si>
+    <t>19021350@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vu va b</t>
+  </si>
+  <si>
+    <t>19021351@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vu van c</t>
+  </si>
+  <si>
+    <t>19021352@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vu van d</t>
+  </si>
+  <si>
+    <t>19021353@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vu van e</t>
+  </si>
+  <si>
+    <t>19021354@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>vu van f</t>
+  </si>
+  <si>
+    <t>19021355@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyen van a</t>
+  </si>
+  <si>
+    <t>19021356@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyen van b</t>
+  </si>
+  <si>
+    <t>19021357@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyen van c</t>
+  </si>
+  <si>
+    <t>19021358@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyen van d</t>
+  </si>
+  <si>
+    <t>19021359@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyen van e</t>
+  </si>
+  <si>
+    <t>19021360@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyen van f</t>
+  </si>
+  <si>
+    <t>19021361@vnu.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -92,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -103,6 +211,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -128,10 +240,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -357,7 +472,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>1.2345678E7</v>
       </c>
       <c r="D1" s="1">
@@ -366,7 +481,7 @@
       <c r="E1" s="1">
         <v>35201.0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3">
@@ -385,9 +500,9 @@
         <v>5</v>
       </c>
       <c r="L1" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="M1" s="1">
+        <v>2.07</v>
+      </c>
+      <c r="M1" s="2">
         <v>100.0</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -401,85 +516,85 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.2345678E7</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.9021337E7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>35201.0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>36923.0</v>
       </c>
-      <c r="H2" s="2">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="M2" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.2345678E7</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D3" s="1">
         <v>1.9021338E7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>35201.0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>36924.0</v>
       </c>
       <c r="H3" s="2">
         <v>9.87654321E8</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="2">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="M3" s="2">
         <v>100.0</v>
@@ -493,30 +608,30 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.9021339E7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.2345678E7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.9021339E7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35201.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>36925.0</v>
       </c>
-      <c r="H4" s="1">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="2">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -526,15 +641,15 @@
         <v>5</v>
       </c>
       <c r="L4" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="M4" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="1" t="s">
+        <v>3.91</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -542,7 +657,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1">
@@ -555,16 +670,16 @@
         <v>35201.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>36926.0</v>
       </c>
-      <c r="H5" s="1">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
+      <c r="H5" s="2">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>4</v>
@@ -573,15 +688,15 @@
         <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>1.64</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -589,7 +704,7 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1">
@@ -598,7 +713,7 @@
       <c r="D6" s="1">
         <v>1.9021341E7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>35201.0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -607,28 +722,28 @@
       <c r="G6" s="4">
         <v>36927.0</v>
       </c>
-      <c r="H6" s="1">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="2">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="M6" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="1" t="s">
+        <v>1.68</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -636,7 +751,7 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1">
@@ -645,37 +760,37 @@
       <c r="D7" s="1">
         <v>1.9021342E7</v>
       </c>
-      <c r="E7" s="1">
-        <v>35201.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="E7" s="2">
+        <v>35201.0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="4">
         <v>36928.0</v>
       </c>
-      <c r="H7" s="1">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="2">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="M7" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1" t="s">
+        <v>3.97</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -683,7 +798,7 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1">
@@ -692,37 +807,883 @@
       <c r="D8" s="1">
         <v>1.9021343E7</v>
       </c>
-      <c r="E8" s="1">
-        <v>35201.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
+      <c r="E8" s="2">
+        <v>35201.0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="4">
         <v>36929.0</v>
       </c>
-      <c r="H8" s="1">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="H8" s="2">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1" t="s">
+        <v>2.01</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.9021344E7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>35201.0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>36930.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.9021345E7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>36931.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.9021346E7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>36932.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2.43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.9021347E7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>36933.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9021348E7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>36934.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.05</v>
+      </c>
+      <c r="M13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.9021349E7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
+        <v>36935.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="M14" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.902135E7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>36936.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="M15" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.9021351E7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>36937.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.9021352E7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3">
+        <v>36938.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2.45</v>
+      </c>
+      <c r="M17" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.9021353E7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3">
+        <v>36939.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="M18" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.9021354E7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>36940.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="M19" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.9021355E7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>36941.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="M20" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.9021356E7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>36942.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="M21" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.9021357E7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>36943.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="M22" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.9021358E7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3">
+        <v>36944.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="M23" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.9021359E7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3">
+        <v>36945.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="M24" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.902136E7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
+        <v>36946.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.47</v>
+      </c>
+      <c r="M25" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.9021361E7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35201.0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
+        <v>36947.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="M26" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
